--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_22_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_22_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92755.54465452842</v>
+        <v>16751250.71079951</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92755.54465452842</v>
+        <v>16751250.71079951</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1268.511449327883</v>
+        <v>79498.93561922314</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1268.511449327883</v>
+        <v>79498.93561922314</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959390830.7451476</v>
+        <v>39678472.41064741</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8597.357059995215</v>
+        <v>981343.935997167</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15930.36540456991</v>
+        <v>1767129.603944717</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23263.37374914462</v>
+        <v>2552915.271892268</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30596.3820937193</v>
+        <v>3338700.939839819</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37929.39043829399</v>
+        <v>4124486.60778737</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44824.43524629107</v>
+        <v>4888541.829622175</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>51924.48426289894</v>
+        <v>5674327.497569721</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>59024.5332795068</v>
+        <v>6460113.165517268</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>66124.58229611466</v>
+        <v>7245898.833464813</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>73224.63131272246</v>
+        <v>8031684.501412375</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>79339.46059871305</v>
+        <v>8658393.177885355</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>86439.5096153209</v>
+        <v>9444178.845832912</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>93539.55863192877</v>
+        <v>10229964.51378047</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>100639.6076485366</v>
+        <v>11015750.18172802</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>107739.6566651445</v>
+        <v>11801535.84967558</v>
       </c>
     </row>
   </sheetData>
@@ -27040,7 +27040,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27055,10 +27055,10 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>400</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>346</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
